--- a/medicine/Médecine vétérinaire/Polydore_(annélide)/Polydore_(annélide).xlsx
+++ b/medicine/Médecine vétérinaire/Polydore_(annélide)/Polydore_(annélide).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Polydore_(ann%C3%A9lide)</t>
+          <t>Polydore_(annélide)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polydora
 Les polydores forment un genre (Polydora) de vers annélides polychètes de la famille des Spionidae.
-Ils sont connus des conchyliculteurs comme parasites, invasifs des huîtres mais peuvent aussi toucher d'autres espèces (l'Ifremer cite une « invasion » en baie de Somme)[2].
+Ils sont connus des conchyliculteurs comme parasites, invasifs des huîtres mais peuvent aussi toucher d'autres espèces (l'Ifremer cite une « invasion » en baie de Somme).
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Polydore_(ann%C3%A9lide)</t>
+          <t>Polydore_(annélide)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Du grec  Πολυδωρη, en allusion à Polydore[citation nécessaire], fille de Tethys et d’Océan de la mythologie grecque[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du grec  Πολυδωρη, en allusion à Polydore[citation nécessaire], fille de Tethys et d’Océan de la mythologie grecque.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Polydore_(ann%C3%A9lide)</t>
+          <t>Polydore_(annélide)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les polydores sont des vers marins vivant généralement dans le sable, les vases, enfouis ou à l'intérieur de tubes qu’ils construisent, quelques espèces creusant des galeries dans les coquilles d’huîtres ou d’autres bivalves, provoquant chez l’huître des boursouflures dans la nacre puis un chambrage noirâtre.
 Cette espèce devient envahissante dans les cultures d'huîtres de nombreux pays où elle a été introduite et où elle peut aussi affecter des individus sauvages. Ses dégâts sont souvent mineurs, mais préjudiciables à la qualité marchande des bivalves. Quand les parasites sont nombreux, ils finissent par affaiblir le bivalve (dans les grands élevages où la contagion est facilitée, on en trouve jusqu’à plus de 600 par huître). La cartographies d’infestation faite par l'IFREMER en baie des Veys laisse penser que la bathymétrie expliquerait le mieux la répartition spatiale des polydores, une fois ceux-ci introduits ou transportés (par les activités humaines ou peut-être par les oiseaux et les courants...).
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Polydore_(ann%C3%A9lide)</t>
+          <t>Polydore_(annélide)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Traitements</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La plupart des produits qui tuent le ver tueraient ou affecteraient l’huître. Une exondation prolongée tue une partie des annélides, de même que le saumurage qui les tue sous l’effet de la pression osmotique (pour cela, on immerge les huîtres une demi-heure dans une eau sursaturée en sel, puis on les conserve hors d'eau une nuit pour faire cristalliser le sel dans les galeries de polydores. L’huître reconstitue ensuite sa coquille au-dessus des galeries.
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Polydore_(ann%C3%A9lide)</t>
+          <t>Polydore_(annélide)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,9 +625,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (30 octobre 2015)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (30 octobre 2015) :
 Polydora aggregata Blake, 1969
 Polydora alloporis Light, 1970
 Polydora anoculata Moore, 1907
